--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>S100a8</t>
+  </si>
+  <si>
+    <t>Tlr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>S100a8</t>
-  </si>
-  <si>
-    <t>Tlr4</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1588.882602</v>
+        <v>0.04779233333333333</v>
       </c>
       <c r="H2">
-        <v>4766.647806</v>
+        <v>0.143377</v>
       </c>
       <c r="I2">
-        <v>0.999783480649261</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9997834806492609</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.94532566666667</v>
+        <v>2.680851666666667</v>
       </c>
       <c r="N2">
-        <v>77.835977</v>
+        <v>8.042555</v>
       </c>
       <c r="O2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="P2">
-        <v>0.5401813355606463</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="Q2">
-        <v>41224.07655499072</v>
+        <v>0.1281241564705556</v>
       </c>
       <c r="R2">
-        <v>371016.6889949164</v>
+        <v>1.153117408235</v>
       </c>
       <c r="S2">
-        <v>0.5400643758485894</v>
+        <v>0.1074910720871699</v>
       </c>
       <c r="T2">
-        <v>0.5400643758485894</v>
+        <v>0.1074910720871699</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1588.882602</v>
+        <v>0.04779233333333333</v>
       </c>
       <c r="H3">
-        <v>4766.647806</v>
+        <v>0.143377</v>
       </c>
       <c r="I3">
-        <v>0.999783480649261</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9997834806492609</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.51427066666666</v>
+        <v>18.51427066666667</v>
       </c>
       <c r="N3">
         <v>55.542812</v>
       </c>
       <c r="O3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="P3">
-        <v>0.3854668692210787</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="Q3">
-        <v>29417.0025509856</v>
+        <v>0.884840195124889</v>
       </c>
       <c r="R3">
-        <v>264753.0229588705</v>
+        <v>7.963561756124001</v>
       </c>
       <c r="S3">
-        <v>0.3853834081848236</v>
+        <v>0.7423457357290222</v>
       </c>
       <c r="T3">
-        <v>0.3853834081848235</v>
+        <v>0.7423457357290222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1588.882602</v>
+        <v>0.04779233333333333</v>
       </c>
       <c r="H4">
-        <v>4766.647806</v>
+        <v>0.143377</v>
       </c>
       <c r="I4">
-        <v>0.999783480649261</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9997834806492609</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.571174000000001</v>
+        <v>3.745104</v>
       </c>
       <c r="N4">
-        <v>10.713522</v>
+        <v>11.235312</v>
       </c>
       <c r="O4">
-        <v>0.07435179521827506</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="P4">
-        <v>0.07435179521827505</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="Q4">
-        <v>5674.176237314749</v>
+        <v>0.178987258736</v>
       </c>
       <c r="R4">
-        <v>51067.58613583274</v>
+        <v>1.610885328624</v>
       </c>
       <c r="S4">
-        <v>0.07433569661584813</v>
+        <v>0.1501631921838079</v>
       </c>
       <c r="T4">
-        <v>0.0743356966158481</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.3440983333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.032295</v>
-      </c>
-      <c r="I5">
-        <v>0.0002165193507390483</v>
-      </c>
-      <c r="J5">
-        <v>0.0002165193507390482</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>25.94532566666667</v>
-      </c>
-      <c r="N5">
-        <v>77.835977</v>
-      </c>
-      <c r="O5">
-        <v>0.5401813355606463</v>
-      </c>
-      <c r="P5">
-        <v>0.5401813355606463</v>
-      </c>
-      <c r="Q5">
-        <v>8.927743319690554</v>
-      </c>
-      <c r="R5">
-        <v>80.349689877215</v>
-      </c>
-      <c r="S5">
-        <v>0.0001169597120569431</v>
-      </c>
-      <c r="T5">
-        <v>0.0001169597120569431</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.3440983333333333</v>
-      </c>
-      <c r="H6">
-        <v>1.032295</v>
-      </c>
-      <c r="I6">
-        <v>0.0002165193507390483</v>
-      </c>
-      <c r="J6">
-        <v>0.0002165193507390482</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>18.51427066666666</v>
-      </c>
-      <c r="N6">
-        <v>55.542812</v>
-      </c>
-      <c r="O6">
-        <v>0.3854668692210787</v>
-      </c>
-      <c r="P6">
-        <v>0.3854668692210787</v>
-      </c>
-      <c r="Q6">
-        <v>6.370729679282221</v>
-      </c>
-      <c r="R6">
-        <v>57.33656711354</v>
-      </c>
-      <c r="S6">
-        <v>8.346103625516159E-05</v>
-      </c>
-      <c r="T6">
-        <v>8.346103625516159E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.3440983333333333</v>
-      </c>
-      <c r="H7">
-        <v>1.032295</v>
-      </c>
-      <c r="I7">
-        <v>0.0002165193507390483</v>
-      </c>
-      <c r="J7">
-        <v>0.0002165193507390482</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.571174000000001</v>
-      </c>
-      <c r="N7">
-        <v>10.713522</v>
-      </c>
-      <c r="O7">
-        <v>0.07435179521827506</v>
-      </c>
-      <c r="P7">
-        <v>0.07435179521827505</v>
-      </c>
-      <c r="Q7">
-        <v>1.228835021443333</v>
-      </c>
-      <c r="R7">
-        <v>11.05951519299</v>
-      </c>
-      <c r="S7">
-        <v>1.609860242694359E-05</v>
-      </c>
-      <c r="T7">
-        <v>1.609860242694359E-05</v>
+        <v>0.1501631921838079</v>
       </c>
     </row>
   </sheetData>
